--- a/database/template.xlsx
+++ b/database/template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{82D667C8-7076-4FA2-8C4A-BB58EB96D475}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35159AB4-8D55-4E35-969B-362970F8ECA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>First Name</t>
   </si>
@@ -32,13 +32,28 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Birth-day</t>
+  </si>
+  <si>
+    <t>Birth-month</t>
+  </si>
+  <si>
+    <t>Birth-year</t>
+  </si>
+  <si>
+    <t>Height</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,6 +69,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -63,7 +86,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -71,14 +94,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -360,34 +401,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="A2:D2"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="10.90625" customWidth="1"/>
-    <col min="3" max="3" width="27.26953125" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" customWidth="1"/>
+    <col min="1" max="2" width="10.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
   </sheetData>

--- a/database/template.xlsx
+++ b/database/template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35159AB4-8D55-4E35-969B-362970F8ECA7}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB03CAC-D1DC-4662-B3EE-A427CC31DD41}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>First Name</t>
   </si>
@@ -47,6 +47,12 @@
   </si>
   <si>
     <t>Height</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>Calorie goal</t>
   </si>
 </sst>
 </file>
@@ -86,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -109,15 +115,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -401,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -414,7 +434,7 @@
     <col min="4" max="4" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -442,8 +462,14 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C2" s="1"/>
     </row>
   </sheetData>
